--- a/RTM/RTM .xlsx
+++ b/RTM/RTM .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/kachana_surekha_capgemini_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/kachana_surekha_capgemini_com/Documents/Documents/Bookmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD908A3D-CAF7-4FB5-B07C-1699D00CC227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{FD908A3D-CAF7-4FB5-B07C-1699D00CC227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55954BE4-E296-4FC4-92C9-629A7FDEB280}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{092D0BDA-A6D4-40BD-A007-08FD3D827E10}"/>
   </bookViews>
@@ -54,12 +54,6 @@
     <t>PMS 3.a</t>
   </si>
   <si>
-    <t>Testcase 1</t>
-  </si>
-  <si>
-    <t>Testcase 2</t>
-  </si>
-  <si>
     <t>PMS 3.b</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>employee_menu()</t>
   </si>
   <si>
-    <t>IT_case 1</t>
-  </si>
-  <si>
     <t>manager_login()</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>manager_registrtation()</t>
   </si>
   <si>
-    <t>IT_case 2</t>
-  </si>
-  <si>
     <t>manager_menu()</t>
   </si>
   <si>
@@ -168,28 +156,40 @@
     <t>1.5.4.7</t>
   </si>
   <si>
-    <t>Testcase 3</t>
-  </si>
-  <si>
-    <t>Testcase 4</t>
-  </si>
-  <si>
-    <t>Testcase 5</t>
-  </si>
-  <si>
-    <t>Testcase 6</t>
-  </si>
-  <si>
-    <t>Testcase 7</t>
-  </si>
-  <si>
-    <t>Testcase 8</t>
-  </si>
-  <si>
-    <t>Testcase 9</t>
-  </si>
-  <si>
-    <t>Testcase10</t>
+    <t>UT_TC_02</t>
+  </si>
+  <si>
+    <t>UT_TC_03</t>
+  </si>
+  <si>
+    <t>UT_TC_04</t>
+  </si>
+  <si>
+    <t>UT_TC_01</t>
+  </si>
+  <si>
+    <t>UT_TC_05</t>
+  </si>
+  <si>
+    <t>UT_TC_06</t>
+  </si>
+  <si>
+    <t>UT_TC_07</t>
+  </si>
+  <si>
+    <t>UT_TC_08</t>
+  </si>
+  <si>
+    <t>UT_TC_09</t>
+  </si>
+  <si>
+    <t>UT_TC_10</t>
+  </si>
+  <si>
+    <t>IT_TC_01</t>
+  </si>
+  <si>
+    <t>IT_TC_02</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,167 +590,167 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
